--- a/docs/Memory.xlsx
+++ b/docs/Memory.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
   <si>
     <t>44</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>button_mapping_t (Position 1)</t>
+  </si>
+  <si>
+    <t>button_mapping_t (Position 0)</t>
+  </si>
+  <si>
+    <t>button_mapping_t (Position 2)</t>
+  </si>
+  <si>
+    <t>button_mapping_t (Position 3)</t>
   </si>
 </sst>
 </file>
@@ -315,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -375,11 +387,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -408,6 +500,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +832,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,10 +965,12 @@
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
         <v>15</v>
@@ -863,10 +984,10 @@
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
         <v>16</v>
@@ -880,10 +1001,10 @@
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
         <v>17</v>
@@ -897,10 +1018,10 @@
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
         <v>18</v>
@@ -914,10 +1035,12 @@
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
         <v>19</v>
@@ -931,10 +1054,10 @@
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
         <v>20</v>
@@ -948,10 +1071,10 @@
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
         <v>21</v>
@@ -965,10 +1088,10 @@
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
         <v>22</v>
@@ -982,10 +1105,12 @@
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9" t="s">
         <v>23</v>
@@ -999,10 +1124,10 @@
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
         <v>24</v>
@@ -1016,10 +1141,10 @@
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
         <v>25</v>
@@ -1033,10 +1158,10 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
         <v>26</v>
@@ -1050,10 +1175,12 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
         <v>27</v>
@@ -1067,10 +1194,10 @@
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9" t="s">
         <v>0</v>
@@ -1084,10 +1211,10 @@
       <c r="A21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
         <v>1</v>
@@ -1101,10 +1228,10 @@
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9" t="s">
         <v>2</v>
@@ -1863,8 +1990,12 @@
       <c r="K66" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E10"/>
+    <mergeCell ref="B11:E14"/>
+    <mergeCell ref="B15:E18"/>
+    <mergeCell ref="B19:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Memory.xlsx
+++ b/docs/Memory.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
   <si>
     <t>44</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Page 1</t>
   </si>
   <si>
-    <t>ip address</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
@@ -266,6 +263,27 @@
   </si>
   <si>
     <t>button_mapping_t (Position 3)</t>
+  </si>
+  <si>
+    <t>own ip address</t>
+  </si>
+  <si>
+    <t>atem ip address</t>
+  </si>
+  <si>
+    <t>projector li ip address</t>
+  </si>
+  <si>
+    <t>projector re ip address</t>
+  </si>
+  <si>
+    <t>4:1 rs232 ip address</t>
+  </si>
+  <si>
+    <t>stage display ip address</t>
+  </si>
+  <si>
+    <t>kl. saal ip address</t>
   </si>
 </sst>
 </file>
@@ -832,7 +850,7 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -903,17 +921,19 @@
       <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="H3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -922,265 +942,275 @@
       <c r="G4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="H7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="H11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="H15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
         <v>27</v>
@@ -1194,10 +1224,10 @@
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9" t="s">
         <v>0</v>
@@ -1211,10 +1241,10 @@
       <c r="A21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
         <v>1</v>
@@ -1228,10 +1258,10 @@
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9" t="s">
         <v>2</v>
@@ -1990,12 +2020,18 @@
       <c r="K66" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E10"/>
-    <mergeCell ref="B11:E14"/>
-    <mergeCell ref="B15:E18"/>
-    <mergeCell ref="B19:E22"/>
+    <mergeCell ref="H3:K6"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Memory.xlsx
+++ b/docs/Memory.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
   <si>
     <t>44</t>
   </si>
@@ -283,7 +281,40 @@
     <t>stage display ip address</t>
   </si>
   <si>
-    <t>kl. saal ip address</t>
+    <t>kl. saal ip address li</t>
+  </si>
+  <si>
+    <t>kl. saal ip address re</t>
+  </si>
+  <si>
+    <t>projector li port</t>
+  </si>
+  <si>
+    <t>projcetor re port</t>
+  </si>
+  <si>
+    <t>4:1 rs232 port</t>
+  </si>
+  <si>
+    <t>stage disp. Port</t>
+  </si>
+  <si>
+    <t>kl. saal li port</t>
+  </si>
+  <si>
+    <t>kl. saal re port</t>
+  </si>
+  <si>
+    <t>ip addresses</t>
+  </si>
+  <si>
+    <t>ports</t>
+  </si>
+  <si>
+    <t>button mappings</t>
+  </si>
+  <si>
+    <t>meta</t>
   </si>
 </sst>
 </file>
@@ -325,7 +356,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +375,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -489,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,48 +565,72 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -847,21 +926,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" style="4" customWidth="1"/>
     <col min="8" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -878,7 +960,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8">
         <v>0</v>
@@ -906,311 +988,337 @@
       <c r="K2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="M3" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="1"/>
       <c r="G4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="M4" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="1"/>
       <c r="G6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="1"/>
       <c r="G13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="16"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9" t="s">
         <v>27</v>
@@ -2020,7 +2128,16 @@
       <c r="K66" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="25">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="H3:K6"/>
     <mergeCell ref="H7:K10"/>
@@ -2032,33 +2149,14 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>